--- a/output/fit_clients/fit_round_33.xlsx
+++ b/output/fit_clients/fit_round_33.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9922670739.388304</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004748649140296535</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.535501702703968</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9363798252757872</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.535501702703968</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4753130494.852969</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004573753136608431</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.8933245801961307</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.65590085744742</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.219831974592168</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.65590085744742</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4668711210.307343</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002525667199552479</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.087753364557634</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9932963968852546</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.087753364557634</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4950924471.195806</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004493831107242362</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.013798599180237</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8058925052658754</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.013798599180237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7470770304.204754</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002601128695879903</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.85253610757356</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.845596991478554</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.85253610757356</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8970445350.899128</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001331412672118697</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.984435381276216</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-0.3892494720807615</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-3.984435381276216</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6703656269.6578</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002393159495175791</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.37636257575479</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9672085625373056</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.37636257575479</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6234550608.735699</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004304144148271513</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6.110506342280892</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.955368657003499</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-6.110506342280892</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3277427454.759079</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.003987113784818657</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.183786654125842</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9307985969183423</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.183786654125842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3175472699.764417</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001404620640868848</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.984747482179396</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7668504728779793</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.984747482179396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6460068713.235947</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001895119981196304</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.107717688846416</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.002612789197653</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.107717688846416</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5772368209.508339</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003214835638451107</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.007973820873944</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.012792136819919</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.007973820873944</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8915378605.739738</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002734315231359969</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.41292697793602</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.878427725215841</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.41292697793602</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6822393479.333035</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005133266916945685</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
         <v>9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.1545581679360088</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.300220062626108</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.2087570894614809</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.300220062626108</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6871486506.580114</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003594077703780479</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.750562963506885</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9139398098549248</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.750562963506885</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6300223018.381865</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003021905260674975</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.9168260975507396</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.934681376338755</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.252595678695715</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.934681376338755</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5530430123.470845</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001334426165380525</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8805028149706708</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.194645839276713</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.247381968228466</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-6.194645839276713</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3233852149.976873</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001468001483379505</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.899150863089196</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8621212632042781</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.899150863089196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4642040849.260352</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001190376980796302</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.952641108060025</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8334759505490239</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.952641108060025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5332714848.197324</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004806766415335467</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.205448533723182</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8332798864537906</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.205448533723182</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5296284506.293386</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005652346695083125</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5.234381271120998</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8868774820823542</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-5.234381271120998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>5694827188.836802</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001569001578978814</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>11</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.702240795332437</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.828163663990504</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.702240795332437</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6686039518.912106</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003552930186470305</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.3652909398273042</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.788521154885925</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.7584219918242762</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.788521154885925</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>7047181231.310796</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003785872310292293</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.741898774720839</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9297662037744011</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.741898774720839</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4921181239.121375</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.0009003316360462026</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.044524595810252</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8213628208723287</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-3.044524595810252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6129557547.029056</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003579906540814319</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.236935691257968</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9172651034706887</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.236935691257968</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6477205185.326944</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005255913798573501</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.44886432449244</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8972084182254566</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.44886432449244</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7416661628.198573</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001618119599310116</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.120678200706352</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9974022538095341</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-4.120678200706352</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7050279842.888721</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003184834219175483</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.083029365341739</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8742189464163063</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.083029365341739</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6293494835.140773</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002425767392611186</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.495353859041183</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9719188980859651</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.495353859041183</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>5205804382.766253</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001085265936869484</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.968646724863167</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9453276740498325</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.968646724863167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7579954361.918895</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003015950852264727</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.7380495088961537</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.775642313931908</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.9897653702883785</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.775642313931908</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6729428827.376338</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004511960606409235</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.277684139477181</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8222453935086114</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-5.277684139477181</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6438384382.254792</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002222500275343944</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.461696280275421</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9693610592079839</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-4.461696280275421</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5931253311.788723</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002741939854299119</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.678166254942158</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.022640302861425</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.678166254942158</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6544946851.355935</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.00367534613063544</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
         <v>8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.38623353946616</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.004048632576549</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.38623353946616</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3325056561.579216</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004780201354465712</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.59973983129516</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9207558607077594</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.59973983129516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>3977900934.953889</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002925996935792899</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>6</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.876057586858349</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8623107696440403</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.876057586858349</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5751381378.595917</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003354594493077429</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.87187041859714</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9957927562565622</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.87187041859714</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6789549359.882366</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.0009913635543047192</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4.036439073505609</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9392884780481771</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-4.036439073505609</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6288195418.234786</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003881636579120403</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.913235442976145</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.006761801216844</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.913235442976145</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5512685520.876544</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.00403324710182469</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.801207470259124</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9308863644466671</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.801207470259124</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5906017458.097538</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001800980182252314</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
         <v>9</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.107013917023183</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.159775501123224</v>
-      </c>
-      <c r="M44" t="n">
-        <v>-0.2474508338845512</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.159775501123224</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4663754998.741272</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001164251506839136</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>7</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.704871377340597</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9491351421117693</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.704871377340597</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9867573448.495094</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005096542470958474</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.238006775187986</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8059938743757843</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.238006775187986</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>7689074712.698318</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002038204844717433</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.932608803518166</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.925879088765914</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.932608803518166</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5518785869.536654</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002264240540166382</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>6.290484524883934</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9970026249814339</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-6.290484524883934</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4794600264.794311</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004648601044601017</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.345001908187148</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8694376613343531</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.345001908187148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7729182556.415865</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002609059400690636</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.203470843381844</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.036424326709599</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.203470843381844</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3472037529.202181</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004506135389148189</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>7</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.489830898974402</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9633029148732304</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.489830898974402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7644454705.667604</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001408008245876571</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>7</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.7574477008586993</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.354688312151343</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.014999686549907</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.354688312151343</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6975963558.886357</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003409050482684406</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.227933835481652</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.8989035502979973</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.227933835481652</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6196289169.766759</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005041103050873899</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
         <v>9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.959639581953784</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8232141462068469</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.959639581953784</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8639607199.282192</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003835982393764182</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>7</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.413147310335723</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9121830592300862</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.413147310335723</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5952369805.598921</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002119717592565152</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>6</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.9551236353201199</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.717269693060142</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.248053386879403</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.717269693060142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7316542509.488014</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003270623711660103</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.7547024024959714</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.972943102895351</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.017912001253033</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-3.972943102895351</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5544369933.436766</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002468592439530884</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>11</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.8415650297977371</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.618829735287942</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.017125360984335</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.618829735287942</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7229518982.471399</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004085088885728894</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>9</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.00194596608759</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8530551251092692</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.00194596608759</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5618456996.937516</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003276655427941468</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>6</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.559635140620868</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.851364666261791</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.559635140620868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5419446370.12337</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.003994007244973662</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>9</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.2150091089480367</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.711480889706666</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.4041317050545644</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.711480889706666</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5868868032.159882</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003712225842626031</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>7</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4.003335182219458</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8700837083902757</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-4.003335182219458</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7971263784.645005</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005273588279344692</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>8</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.175095206616144</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9092775490593565</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-3.175095206616144</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>5216467979.561632</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004145393527957857</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.427233153192848</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9276099015778649</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.427233153192848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5679917067.848264</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004317697850661152</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.466041879057261</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.036345497171608</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-4.466041879057261</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5744482385.310691</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003006744915399632</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>7</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.458358261579005</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9006862024199334</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.458358261579005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7054134796.151202</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004355336964510161</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>6.330538580816158</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9432935612184998</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-6.330538580816158</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>6853015675.68006</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002901051123739585</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>6</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5305806943209765</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.54831725559086</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7318096745468775</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.54831725559086</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6028882314.903473</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.00106175256558858</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.75443503939303</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9671240912922717</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.75443503939303</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>8166928933.667126</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003491494578589506</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.947277324980414</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9349274416525338</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.947277324980414</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>5207197842.147561</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003048687073799311</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>5.083689815303685</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8521202984944405</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-5.083689815303685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5506565190.663916</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001836357894282907</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>5</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4.012360037305963</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.077752124766211</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-4.012360037305963</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6677522530.790601</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001126873062376658</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5.111964168668909</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9995714637059524</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-5.111964168668909</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4575644266.502102</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.005209991369349996</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>7</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.358214399578929</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8676849658388872</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.358214399578929</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7432388958.244946</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.002753337918871676</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>9</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.122728356009532</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8345295674810533</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.122728356009532</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6717694603.124531</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002073646982832969</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>8</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.05866571177563241</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.302109930902721</v>
-      </c>
-      <c r="M76" t="n">
-        <v>-0.3601831199171228</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.302109930902721</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5672621481.644268</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004385023326144784</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.1001273115588442</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.170194896903509</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.3304471199155604</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.170194896903509</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6374102701.189644</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003270327354760197</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>6</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.9780007332365632</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.718222328750982</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.285882151331503</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-3.718222328750982</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6681866424.828926</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002555394019619687</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.390930115485924</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9779236686787978</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.390930115485924</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7647916414.572599</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003365650215846873</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.719283754141786</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9793957082192769</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.719283754141786</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7279420486.785087</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003777114502060031</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>6.168634758950643</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.016668383014655</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-6.168634758950643</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8778748133.411882</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004100578293625901</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.209694347039324</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9667119458625895</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.209694347039324</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8972256087.780121</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002530303719356877</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>12</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.826154867377115</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.587060967037005</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.018419935384378</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.587060967037005</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6394130532.590002</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003608874404140279</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>9</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.012873639935933</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9335496263512428</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.012873639935933</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5158132910.695993</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002564479261015963</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>8</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.153483328119208</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9115668493789878</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.153483328119208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6485903724.12215</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002168557440800752</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
         <v>9</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.303247026563923</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9610518459752003</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.303247026563923</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4853980205.894466</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.00145348421467659</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>9</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.2112056557574033</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.024700373409595</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.4285982346249173</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.024700373409595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>9213566977.276337</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004294425182340026</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>8</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>3.146277308607209</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8213628208723287</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-3.146277308607209</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5474412809.600845</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003504498713927617</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
         <v>7</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.527586278584593</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.938091264043542</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.527586278584593</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5266236688.461918</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002803711688370995</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>8</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.142329756836165</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9195345179537507</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.142329756836165</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7277273934.986589</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003287639974886765</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6.109734336878859</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8721126607684516</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-6.109734336878859</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3847761717.492278</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003850265622541892</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.495665552121842</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.032236249457265</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.495665552121842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6952451592.004502</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001835914400681607</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.439340035967821</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9269158113648146</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.439340035967821</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5206362893.943031</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001365963392246801</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>6.295209193323982</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.062774281434462</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-6.295209193323982</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7612624053.690694</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.001834428400566692</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.949457935640337</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9348400535211216</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.949457935640337</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6503329865.876504</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002618042896105831</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>11</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.817778779255407</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8817942883392563</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.817778779255407</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>8078165480.325684</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005125575362432814</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.156577605368241</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9168305450630585</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.156577605368241</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8649471536.281919</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004576590340074244</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.832144537743745</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8879597415248227</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.832144537743745</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3897505864.08743</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005832273092366034</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>8</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3.261513937750712</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.268192401153283</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-3.261513937750712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>3810822536.57377</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002948962520420342</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.144691278162829</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7929589063845425</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.144691278162829</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>8066493194.168908</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001612944812844573</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5642074438923643</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.706749259756792</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.894882386725363</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.706749259756792</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_33.xlsx
+++ b/output/fit_clients/fit_round_33.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -483,19 +493,25 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9922670739.388304</v>
+        <v>2150522281.532644</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004748649140296535</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+        <v>0.0954077071913772</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04104810878824733</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1075261156.513571</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4753130494.852969</v>
+        <v>1621132526.136468</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004573753136608431</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+        <v>0.1158802085072883</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0401417655665396</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>810566244.2396984</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4668711210.307343</v>
+        <v>3419454512.98471</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002525667199552479</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+        <v>0.159722676899065</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02898943846872297</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1709727229.357153</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>535</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2944765027.852489</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.08011096141014722</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03343296676113686</v>
+      </c>
+      <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
-        <v>494</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4950924471.195806</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.004493831107242362</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1472382587.209613</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7470770304.204754</v>
+        <v>1970798855.654322</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002601128695879903</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+        <v>0.1276326233239045</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05095071189999757</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>985399460.3957908</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8970445350.899128</v>
+        <v>2061330767.454386</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001331412672118697</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+        <v>0.06553396485823534</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03810090165009865</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1030665438.820308</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6703656269.6578</v>
+        <v>2457171501.411082</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002393159495175791</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+        <v>0.1335943015664061</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03045529957289361</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1228585752.55721</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6234550608.735699</v>
+        <v>1591198264.480307</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004304144148271513</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
+        <v>0.1352595401283492</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02282502535097923</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>795599215.3640592</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3277427454.759079</v>
+        <v>5921331311.768741</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003987113784818657</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1408802750267932</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03778124589520575</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2960665826.332858</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3175472699.764417</v>
+        <v>3435634830.799758</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001404620640868848</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1386904751313008</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03619437745293293</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1717817388.55196</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +833,25 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6460068713.235947</v>
+        <v>2753548238.661465</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001895119981196304</v>
-      </c>
-      <c r="G12" t="b">
+        <v>0.1340529386011797</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03676550777367359</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
-        <v>9</v>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1376774114.596636</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5772368209.508339</v>
+        <v>5314389322.283579</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003214835638451107</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
+        <v>0.07987211687783598</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02874611484875468</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2657194649.127933</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8915378605.739738</v>
+        <v>3522932322.866301</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002734315231359969</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
+        <v>0.1610866503898341</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03947862703001748</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1761466157.814981</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6822393479.333035</v>
+        <v>1492862326.648427</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005133266916945685</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
+        <v>0.08100014642208668</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04866214799680789</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>746431247.0259032</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6871486506.580114</v>
+        <v>2551447909.923674</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003594077703780479</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>11</v>
+        <v>0.1064999280611444</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03951886262898836</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1275723980.982645</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6300223018.381865</v>
+        <v>3388609873.16221</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003021905260674975</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
+        <v>0.1382857936464377</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03383312281968804</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1694305001.207356</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5530430123.470845</v>
+        <v>3831910457.875409</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001334426165380525</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
+        <v>0.1265872882328801</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03136909882159824</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1915955198.753009</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3233852149.976873</v>
+        <v>1171251174.696061</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001468001483379505</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1226789060405977</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02497044029457766</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>585625658.05179</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4642040849.260352</v>
+        <v>2582494103.933793</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001190376980796302</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1166826297073179</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02501709355974811</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1291247016.07852</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5332714848.197324</v>
+        <v>2280410357.096837</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004806766415335467</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
+        <v>0.08597585419154598</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04592895056221631</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1140205187.498701</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5296284506.293386</v>
+        <v>2717922693.631668</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005652346695083125</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
+        <v>0.1156087034644431</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0476601909598994</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1358961425.055358</v>
       </c>
     </row>
     <row r="23">
@@ -1071,19 +1207,25 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>5694827188.836802</v>
+        <v>1255042194.837632</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001569001578978814</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
+        <v>0.1367709955952954</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04943239719909571</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>627521124.472535</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6686039518.912106</v>
+        <v>3329383487.476185</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003552930186470305</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
+        <v>0.1171721372630561</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03189875542648416</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>10</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1664691756.609463</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>7047181231.310796</v>
+        <v>1028322850.108048</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003785872310292293</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
+        <v>0.08099052123286846</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02513147114469157</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>514161482.3443464</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4921181239.121375</v>
+        <v>1374179757.908108</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0009003316360462026</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09067744202579296</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02462994046079967</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>687089942.4909146</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6129557547.029056</v>
+        <v>3430933644.04389</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003579906540814319</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
+        <v>0.1027016408829206</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02299198298700901</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1715466860.25904</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6477205185.326944</v>
+        <v>3478598021.5302</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005255913798573501</v>
-      </c>
-      <c r="G28" t="b">
+        <v>0.125573563180083</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03124990404287371</v>
+      </c>
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="H28" t="n">
-        <v>8</v>
+      <c r="I28" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1739299063.353413</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7416661628.198573</v>
+        <v>4080088406.13915</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001618119599310116</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
+        <v>0.1238791593854794</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03762192686202804</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>15</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2040044214.215399</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7050279842.888721</v>
+        <v>2398939959.680745</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003184834219175483</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>11</v>
+        <v>0.1262474619417136</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03798913197526726</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1199470062.50963</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6293494835.140773</v>
+        <v>1084128274.649306</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002425767392611186</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
+        <v>0.06752548574692388</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04010753384072664</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>542064115.8522668</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>5205804382.766253</v>
+        <v>1653313995.565152</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001085265936869484</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.119620554185878</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03579256308251751</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>826657097.7023482</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7579954361.918895</v>
+        <v>2568006365.487513</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003015950852264727</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
+        <v>0.1289769402895571</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.06035926369742951</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1284003214.974462</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6729428827.376338</v>
+        <v>1565538751.219439</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004511960606409235</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
+        <v>0.1094142837835482</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02669568140964101</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>782769320.4338502</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6438384382.254792</v>
+        <v>1196206858.429224</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002222500275343944</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
+        <v>0.1153517766728232</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03671057091952026</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>598103404.5734731</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5931253311.788723</v>
+        <v>2876637280.972623</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002741939854299119</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
+        <v>0.1176196761604003</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02100162162590825</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1438318632.085549</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6544946851.355935</v>
+        <v>2374498575.928134</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00367534613063544</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
+        <v>0.07883234105514421</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03837227903683457</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1187249366.580621</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3325056561.579216</v>
+        <v>1890316076.816606</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004780201354465712</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08682594795316864</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03589755248558277</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>945158032.3476557</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>3977900934.953889</v>
+        <v>1955495092.329903</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002925996935792899</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
+        <v>0.1444947501646491</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02358634245647599</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>977747547.2950504</v>
       </c>
     </row>
     <row r="40">
@@ -1547,19 +1785,25 @@
         <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5751381378.595917</v>
+        <v>1318292508.960491</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003354594493077429</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
+        <v>0.1129990441487792</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05541603704585006</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>659146265.9969304</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6789549359.882366</v>
+        <v>1949429934.767864</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0009913635543047192</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>9</v>
+        <v>0.1147036317065302</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04442622583340949</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>10</v>
+      </c>
+      <c r="J41" t="n">
+        <v>974715046.2991946</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6288195418.234786</v>
+        <v>4337819292.965542</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003881636579120403</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
+        <v>0.09216014117455779</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03464704812849711</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2168909698.878302</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5512685520.876544</v>
+        <v>2761643321.944093</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00403324710182469</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
+        <v>0.1680659295355764</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0233651467748864</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1380821683.140727</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5906017458.097538</v>
+        <v>1455585253.688096</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001800980182252314</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
+        <v>0.09822034626613232</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02372874988674882</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>727792624.3820533</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4663754998.741272</v>
+        <v>1630246815.30677</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001164251506839136</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1861057495617492</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04329709085392252</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>815123361.0984172</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9867573448.495094</v>
+        <v>5172426567.248376</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005096542470958474</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>5</v>
+        <v>0.1316259843429498</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0503723280213134</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>12</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2586213320.118621</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>7689074712.698318</v>
+        <v>3283978064.299436</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002038204844717433</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
+        <v>0.1668887075975954</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05325962805566554</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1641988990.475936</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5518785869.536654</v>
+        <v>3448489080.035395</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002264240540166382</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
+        <v>0.1009034419774968</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0256162582779191</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>11</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1724244606.220766</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4794600264.794311</v>
+        <v>1583611924.385374</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004648601044601017</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1242301731752709</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03067139991955026</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>791805980.9961938</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7729182556.415865</v>
+        <v>4121171778.057177</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002609059400690636</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
+        <v>0.1479422286495837</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03934797642765236</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>11</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2060585868.853731</v>
       </c>
     </row>
     <row r="51">
@@ -1855,19 +2159,25 @@
         <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3472037529.202181</v>
+        <v>1233378191.795171</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004506135389148189</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.141647780748139</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03755625833236536</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>616689141.8667653</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7644454705.667604</v>
+        <v>3802888247.146829</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001408008245876571</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>8</v>
+        <v>0.09321963453828229</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05882196167029616</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>14</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1901444191.477691</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6975963558.886357</v>
+        <v>3588724431.829516</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003409050482684406</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
+        <v>0.1387889191081211</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02923141283601297</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>9</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1794362207.535584</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6196289169.766759</v>
+        <v>4430112569.546283</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005041103050873899</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>9</v>
+        <v>0.1552173920805904</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0510625109702044</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>11</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2215056382.381654</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>446</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3893675949.772584</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.2231897178207608</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02105899293971835</v>
+      </c>
+      <c r="H55" t="b">
         <v>1</v>
       </c>
-      <c r="D55" t="n">
-        <v>568</v>
-      </c>
-      <c r="E55" t="n">
-        <v>8639607199.282192</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.003835982393764182</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>11</v>
+      <c r="I55" t="n">
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1946837944.906081</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5952369805.598921</v>
+        <v>1535017691.938853</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002119717592565152</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>5</v>
+        <v>0.1159987146357256</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04508822341454881</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>767508882.8116997</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7316542509.488014</v>
+        <v>2987648490.151531</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003270623711660103</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>7</v>
+        <v>0.1482278860268667</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02048346797091968</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>10</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1493824248.261654</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5544369933.436766</v>
+        <v>1685249261.176143</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002468592439530884</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>7</v>
+        <v>0.1480942766406972</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02862072205919584</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>842624644.6558131</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7229518982.471399</v>
+        <v>4503371214.076484</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004085088885728894</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
+        <v>0.1231277270785072</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04782014722849913</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2251685558.520646</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>490</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2765001639.907347</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.1505467614040212</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02758027303513423</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
       </c>
-      <c r="D60" t="n">
-        <v>424</v>
-      </c>
-      <c r="E60" t="n">
-        <v>5618456996.937516</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.003276655427941468</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+      <c r="I60" t="n">
+        <v>10</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1382500865.472474</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5419446370.12337</v>
+        <v>2309075043.290155</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003994007244973662</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>8</v>
+        <v>0.1142107598688581</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03169642505319092</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1154537567.077882</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5868868032.159882</v>
+        <v>1389535299.931527</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003712225842626031</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6</v>
+        <v>0.1527750609805533</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03825846068816141</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>694767616.2695628</v>
       </c>
     </row>
     <row r="63">
@@ -2191,19 +2567,25 @@
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7971263784.645005</v>
+        <v>4153285918.932564</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005273588279344692</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>8</v>
+        <v>0.06655467399773689</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03786177162514283</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>9</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2076643014.813378</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5216467979.561632</v>
+        <v>3418906144.42845</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004145393527957857</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.146831005200429</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0325388442457886</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1709453066.984843</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5679917067.848264</v>
+        <v>4638386243.963324</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004317697850661152</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>7</v>
+        <v>0.1504286584107915</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02061130877495527</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>12</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2319193102.29776</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5744482385.310691</v>
+        <v>3801112841.584925</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003006744915399632</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>6</v>
+        <v>0.115991581667346</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03520518754217294</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>10</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1900556383.470928</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7054134796.151202</v>
+        <v>3425023652.972663</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004355336964510161</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
+        <v>0.08307468082435243</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03233586276286785</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1712511808.634077</v>
       </c>
     </row>
     <row r="68">
@@ -2331,19 +2737,25 @@
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6853015675.68006</v>
+        <v>5882913997.580232</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002901051123739585</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>7</v>
+        <v>0.1335109269355243</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04125433285590964</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2941457108.473909</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6028882314.903473</v>
+        <v>1628623209.593598</v>
       </c>
       <c r="F69" t="n">
-        <v>0.00106175256558858</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>6</v>
+        <v>0.1516408371825679</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04214388703457795</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>814311561.5305265</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>8166928933.667126</v>
+        <v>2423434734.432213</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003491494578589506</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>8</v>
+        <v>0.08465905618998587</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04766240528658572</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1211717306.534098</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5207197842.147561</v>
+        <v>5601879891.957109</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003048687073799311</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1125166704147427</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0282461303238248</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>12</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2800940096.37418</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5506565190.663916</v>
+        <v>2237611862.343956</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001836357894282907</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>7</v>
+        <v>0.07241177213578608</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03268569518188186</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1118805838.961558</v>
       </c>
     </row>
     <row r="73">
@@ -2471,19 +2907,25 @@
         <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6677522530.790601</v>
+        <v>3484689931.935579</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001126873062376658</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>7</v>
+        <v>0.07671522483387302</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04222264332700713</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1742344917.422713</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4575644266.502102</v>
+        <v>2763935119.884768</v>
       </c>
       <c r="F74" t="n">
-        <v>0.005209991369349996</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>8</v>
+        <v>0.1463684044565912</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02871916332453791</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>11</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1381967645.545377</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7432388958.244946</v>
+        <v>1685547223.650868</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002753337918871676</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>6</v>
+        <v>0.1498433324100984</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03795215127296427</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>842773605.3321503</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6717694603.124531</v>
+        <v>4589862825.089866</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002073646982832969</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.09263264285054627</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02291123017393622</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>7</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2294931421.817739</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5672621481.644268</v>
+        <v>2261353296.061856</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004385023326144784</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>13</v>
+        <v>0.1639842054866095</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02174914935147939</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1130676747.974848</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6374102701.189644</v>
+        <v>3161549227.021906</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003270327354760197</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>7</v>
+        <v>0.08789537723738815</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04540616513357055</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>11</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1580774639.086226</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6681866424.828926</v>
+        <v>1719945581.531981</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002555394019619687</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>7</v>
+        <v>0.1539654771623045</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02951181136998779</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>859972863.1948175</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7647916414.572599</v>
+        <v>4968694782.94155</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003365650215846873</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>13</v>
+        <v>0.1091181914057376</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02631445040622461</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>7</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2484347438.92492</v>
       </c>
     </row>
     <row r="81">
@@ -2695,19 +3179,25 @@
         <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7279420486.785087</v>
+        <v>4655324732.911586</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003777114502060031</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>6</v>
+        <v>0.1337358658090742</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0230713795955209</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2327662353.832435</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
+        <v>4</v>
+      </c>
+      <c r="D82" t="n">
+        <v>520</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4701265597.646956</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.2130060887166573</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01896827669344483</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="D82" t="n">
-        <v>423</v>
-      </c>
-      <c r="E82" t="n">
-        <v>8778748133.411882</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.004100578293625901</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>6</v>
+      <c r="I82" t="n">
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2350632799.276353</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8972256087.780121</v>
+        <v>1667538489.570019</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002530303719356877</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>8</v>
+        <v>0.111236290643521</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04293874103670806</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>833769188.5685132</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6394130532.590002</v>
+        <v>2080539133.437676</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003608874404140279</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>9</v>
+        <v>0.08465599831858149</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04075822711266314</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1040269559.740436</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5158132910.695993</v>
+        <v>2372469220.804212</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002564479261015963</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1394300938281032</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03700006656226799</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>12</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1186234601.074874</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6485903724.12215</v>
+        <v>1692805030.736123</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002168557440800752</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>9</v>
+        <v>0.1072472918464591</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02688795104933247</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>846402500.1042997</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4853980205.894466</v>
+        <v>1211915967.402407</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00145348421467659</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1593660603260503</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03229446954210097</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>605958042.1475006</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
+        <v>4</v>
+      </c>
+      <c r="D88" t="n">
+        <v>555</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3374443507.940325</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.1602080102085966</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02621730349531572</v>
+      </c>
+      <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="D88" t="n">
-        <v>477</v>
-      </c>
-      <c r="E88" t="n">
-        <v>9213566977.276337</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.004294425182340026</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>7</v>
+      <c r="I88" t="n">
+        <v>13</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1687221821.241917</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5474412809.600845</v>
+        <v>2163244158.190367</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003504498713927617</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>7</v>
+        <v>0.1277385585938698</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02618540790964621</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1081622178.383879</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5266236688.461918</v>
+        <v>1584500442.725262</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002803711688370995</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>6</v>
+        <v>0.08927974063229595</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03649069622359542</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>792250215.3287573</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7277273934.986589</v>
+        <v>1999184597.142283</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003287639974886765</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>10</v>
+        <v>0.1808216363467687</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04765698663436191</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>999592270.745227</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3847761717.492278</v>
+        <v>2885285672.172378</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003850265622541892</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.07963606072552278</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04313099106774127</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>9</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1442642848.998789</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6952451592.004502</v>
+        <v>4236539396.988192</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001835914400681607</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>11</v>
+        <v>0.119854018060281</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03860729841502748</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2118269683.635208</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5206362893.943031</v>
+        <v>2205633837.822501</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001365963392246801</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>11</v>
+        <v>0.1300983357572962</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0368127067759736</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1102816943.850905</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7612624053.690694</v>
+        <v>2725642574.856053</v>
       </c>
       <c r="F95" t="n">
-        <v>0.001834428400566692</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
+        <v>0.08533363135180608</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04743839273936567</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>8</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1362821306.935941</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6503329865.876504</v>
+        <v>1883137119.048193</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002618042896105831</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>9</v>
+        <v>0.1279878566971587</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03419433431189856</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>941568558.7976668</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>8078165480.325684</v>
+        <v>5155874338.354635</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005125575362432814</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>9</v>
+        <v>0.174037644243958</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02386989069344888</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>11</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2577937318.307553</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8649471536.281919</v>
+        <v>3675379210.959327</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004576590340074244</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>13</v>
+        <v>0.0923190280132946</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02925237901863614</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>9</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1837689635.8189</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3897505864.08743</v>
+        <v>2368064882.50555</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005832273092366034</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1414320145489462</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02479412982702203</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>10</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1184032381.138872</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3810822536.57377</v>
+        <v>2897337045.277779</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002948962520420342</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
+        <v>0.1723671034304317</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02772723989054802</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1448668505.124498</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>8066493194.168908</v>
+        <v>3245291628.461226</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001612944812844573</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>10</v>
+        <v>0.2042660415123197</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0442728773248607</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>14</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1622645935.517651</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_33.xlsx
+++ b/output/fit_clients/fit_round_33.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2150522281.532644</v>
+        <v>1575293078.544018</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0954077071913772</v>
+        <v>0.0820479036300191</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04104810878824733</v>
+        <v>0.04473656360848457</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1075261156.513571</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1621132526.136468</v>
+        <v>1776031996.004105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1158802085072883</v>
+        <v>0.1180626812431903</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0401417655665396</v>
+        <v>0.03976184751552004</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>810566244.2396984</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3419454512.98471</v>
+        <v>4359479062.178162</v>
       </c>
       <c r="F4" t="n">
-        <v>0.159722676899065</v>
+        <v>0.1378003015881671</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02898943846872297</v>
+        <v>0.03232769685444958</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1709727229.357153</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2944765027.852489</v>
+        <v>2996143625.854954</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08011096141014722</v>
+        <v>0.101573122175484</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03343296676113686</v>
+        <v>0.03239396249781167</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1472382587.209613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1970798855.654322</v>
+        <v>1820418553.494513</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1276326233239045</v>
+        <v>0.1449973413442162</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05095071189999757</v>
+        <v>0.03793530109101836</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>985399460.3957908</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2061330767.454386</v>
+        <v>3134192360.780221</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06553396485823534</v>
+        <v>0.07153803658450672</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03810090165009865</v>
+        <v>0.03775088646176997</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1030665438.820308</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2457171501.411082</v>
+        <v>3304983860.369545</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1335943015664061</v>
+        <v>0.2085446253956663</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03045529957289361</v>
+        <v>0.02977287659195035</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1228585752.55721</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1591198264.480307</v>
+        <v>1552010984.203454</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1352595401283492</v>
+        <v>0.1593670078040113</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02282502535097923</v>
+        <v>0.03556822929659793</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>795599215.3640592</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5921331311.768741</v>
+        <v>5403299815.721196</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1408802750267932</v>
+        <v>0.161056542370565</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03778124589520575</v>
+        <v>0.04484480203498996</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>14</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2960665826.332858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3435634830.799758</v>
+        <v>3588781265.310606</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1386904751313008</v>
+        <v>0.1632145026481401</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03619437745293293</v>
+        <v>0.03362559119571392</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>14</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1717817388.55196</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2753548238.661465</v>
+        <v>2826082380.211225</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1340529386011797</v>
+        <v>0.1202171029363942</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03676550777367359</v>
+        <v>0.04840881755152726</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1376774114.596636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5314389322.283579</v>
+        <v>5063035554.337044</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07987211687783598</v>
+        <v>0.06825800325497193</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02874611484875468</v>
+        <v>0.02388608796576167</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2657194649.127933</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3522932322.866301</v>
+        <v>3120466033.220912</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1610866503898341</v>
+        <v>0.1384826764842757</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03947862703001748</v>
+        <v>0.03597983066253055</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1761466157.814981</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1492862326.648427</v>
+        <v>1568908514.301033</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08100014642208668</v>
+        <v>0.07915041596548106</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04866214799680789</v>
+        <v>0.03952778944350288</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>746431247.0259032</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2551447909.923674</v>
+        <v>2625187481.464939</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1064999280611444</v>
+        <v>0.08785153657374305</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03951886262898836</v>
+        <v>0.03359497408405991</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1275723980.982645</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3388609873.16221</v>
+        <v>3320427716.208255</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1382857936464377</v>
+        <v>0.1216717180555097</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03383312281968804</v>
+        <v>0.04457127591836772</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1694305001.207356</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3831910457.875409</v>
+        <v>3674943904.770759</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1265872882328801</v>
+        <v>0.1303157826484116</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03136909882159824</v>
+        <v>0.03099312471489666</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>11</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1915955198.753009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1171251174.696061</v>
+        <v>1103520771.986695</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1226789060405977</v>
+        <v>0.1627629704586463</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02497044029457766</v>
+        <v>0.02316780797444417</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>585625658.05179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2582494103.933793</v>
+        <v>1850355573.387992</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1166826297073179</v>
+        <v>0.1612360995032687</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02501709355974811</v>
+        <v>0.02661561651008834</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1291247016.07852</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2280410357.096837</v>
+        <v>2063271246.460052</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08597585419154598</v>
+        <v>0.07876502518465332</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04592895056221631</v>
+        <v>0.02935519256655028</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1140205187.498701</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2717922693.631668</v>
+        <v>3660989780.139305</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1156087034644431</v>
+        <v>0.1039542677127354</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0476601909598994</v>
+        <v>0.04105833212600928</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1358961425.055358</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1255042194.837632</v>
+        <v>1017709802.992851</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1367709955952954</v>
+        <v>0.1740763641367191</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04943239719909571</v>
+        <v>0.04547315906145197</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>627521124.472535</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3329383487.476185</v>
+        <v>3860286437.998695</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1171721372630561</v>
+        <v>0.1318996594887055</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03189875542648416</v>
+        <v>0.0271627479636816</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1664691756.609463</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1028322850.108048</v>
+        <v>1235394404.073729</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08099052123286846</v>
+        <v>0.08157999136628834</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02513147114469157</v>
+        <v>0.02200901640485021</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>514161482.3443464</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1374179757.908108</v>
+        <v>1153035577.315336</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09067744202579296</v>
+        <v>0.1065677186008325</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02462994046079967</v>
+        <v>0.02820414595743485</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>687089942.4909146</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3430933644.04389</v>
+        <v>3586488265.541588</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1027016408829206</v>
+        <v>0.1097594622594881</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02299198298700901</v>
+        <v>0.02621997682774874</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>7</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1715466860.25904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3478598021.5302</v>
+        <v>3711636426.609112</v>
       </c>
       <c r="F28" t="n">
-        <v>0.125573563180083</v>
+        <v>0.1422819501171811</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03124990404287371</v>
+        <v>0.04423062658451697</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>10</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1739299063.353413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4080088406.13915</v>
+        <v>4397705406.739775</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1238791593854794</v>
+        <v>0.1511687472509811</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03762192686202804</v>
+        <v>0.0447522147377903</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>15</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2040044214.215399</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2398939959.680745</v>
+        <v>2169635196.478273</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1262474619417136</v>
+        <v>0.1028840231232152</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03798913197526726</v>
+        <v>0.03372860701627241</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1199470062.50963</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1084128274.649306</v>
+        <v>1021393878.921963</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06752548574692388</v>
+        <v>0.08228826887096855</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04010753384072664</v>
+        <v>0.05249140212582638</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>542064115.8522668</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1653313995.565152</v>
+        <v>1486288560.826947</v>
       </c>
       <c r="F32" t="n">
-        <v>0.119620554185878</v>
+        <v>0.1088717920325509</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03579256308251751</v>
+        <v>0.03551239416567363</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>826657097.7023482</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2568006365.487513</v>
+        <v>2112266894.934335</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1289769402895571</v>
+        <v>0.1795868221826296</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06035926369742951</v>
+        <v>0.0483966390022944</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>10</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1284003214.974462</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1565538751.219439</v>
+        <v>1255380496.080628</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1094142837835482</v>
+        <v>0.07886819523492594</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02669568140964101</v>
+        <v>0.02171177983417165</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>782769320.4338502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1196206858.429224</v>
+        <v>998747815.0146148</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1153517766728232</v>
+        <v>0.08419024614846271</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03671057091952026</v>
+        <v>0.03454693681051663</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>598103404.5734731</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2876637280.972623</v>
+        <v>2107399029.966844</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1176196761604003</v>
+        <v>0.141259465158271</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02100162162590825</v>
+        <v>0.02748179883970827</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1438318632.085549</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2374498575.928134</v>
+        <v>2326446327.270554</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07883234105514421</v>
+        <v>0.1066569129603484</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03837227903683457</v>
+        <v>0.02884025647109385</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1187249366.580621</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1890316076.816606</v>
+        <v>1779088159.624571</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08682594795316864</v>
+        <v>0.1008654492961486</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03589755248558277</v>
+        <v>0.02476368616605005</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>945158032.3476557</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1955495092.329903</v>
+        <v>1637150144.299718</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1444947501646491</v>
+        <v>0.1461828848375433</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02358634245647599</v>
+        <v>0.0272754019999583</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>977747547.2950504</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1318292508.960491</v>
+        <v>1233264378.548477</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1129990441487792</v>
+        <v>0.1449419011016702</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05541603704585006</v>
+        <v>0.0417437933456116</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>659146265.9969304</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1949429934.767864</v>
+        <v>2427695063.329377</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1147036317065302</v>
+        <v>0.1167628291714062</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04442622583340949</v>
+        <v>0.04642606014038869</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10</v>
-      </c>
-      <c r="J41" t="n">
-        <v>974715046.2991946</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4337819292.965542</v>
+        <v>4118246357.94962</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09216014117455779</v>
+        <v>0.1034107446482682</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03464704812849711</v>
+        <v>0.03762814476277394</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2168909698.878302</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2761643321.944093</v>
+        <v>2900599784.191494</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1680659295355764</v>
+        <v>0.1604470129285423</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0233651467748864</v>
+        <v>0.01633045765890638</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>9</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1380821683.140727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1455585253.688096</v>
+        <v>1697022834.284179</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09822034626613232</v>
+        <v>0.06324473751518597</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02372874988674882</v>
+        <v>0.02613573060919938</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>727792624.3820533</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1630246815.30677</v>
+        <v>2124549056.023917</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1861057495617492</v>
+        <v>0.150799865994807</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04329709085392252</v>
+        <v>0.04793624639550215</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>815123361.0984172</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5172426567.248376</v>
+        <v>5139040254.140112</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1316259843429498</v>
+        <v>0.1462119241835526</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0503723280213134</v>
+        <v>0.05453567608989868</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>12</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2586213320.118621</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3283978064.299436</v>
+        <v>3753718064.691851</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1668887075975954</v>
+        <v>0.1893259473886152</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05325962805566554</v>
+        <v>0.04423298109687106</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>9</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1641988990.475936</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3448489080.035395</v>
+        <v>3083804407.37878</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1009034419774968</v>
+        <v>0.07366154072372982</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0256162582779191</v>
+        <v>0.02872281590972101</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>11</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1724244606.220766</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1583611924.385374</v>
+        <v>1785727006.927983</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1242301731752709</v>
+        <v>0.1891014040229443</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03067139991955026</v>
+        <v>0.04371467928925546</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>791805980.9961938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4121171778.057177</v>
+        <v>3444101530.186903</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1479422286495837</v>
+        <v>0.1468987398976405</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03934797642765236</v>
+        <v>0.03781024503920109</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>11</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2060585868.853731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1233378191.795171</v>
+        <v>1217309810.603803</v>
       </c>
       <c r="F51" t="n">
-        <v>0.141647780748139</v>
+        <v>0.1267825328568335</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03755625833236536</v>
+        <v>0.05052182214409214</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>616689141.8667653</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3802888247.146829</v>
+        <v>4933394642.032174</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09321963453828229</v>
+        <v>0.1207823203433569</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05882196167029616</v>
+        <v>0.05289104905520815</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>14</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1901444191.477691</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3588724431.829516</v>
+        <v>2952993658.76584</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1387889191081211</v>
+        <v>0.1966068492500298</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02923141283601297</v>
+        <v>0.03412739433581064</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1794362207.535584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4430112569.546283</v>
+        <v>4058369723.122709</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1552173920805904</v>
+        <v>0.1108283807967172</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0510625109702044</v>
+        <v>0.04792413363900482</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2215056382.381654</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3893675949.772584</v>
+        <v>4761610500.552724</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2231897178207608</v>
+        <v>0.1925620697068781</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02105899293971835</v>
+        <v>0.02973230530445966</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>8</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1946837944.906081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1535017691.938853</v>
+        <v>1707069625.650111</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1159987146357256</v>
+        <v>0.1260718356951585</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04508822341454881</v>
+        <v>0.04439177791241775</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>767508882.8116997</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2987648490.151531</v>
+        <v>4094244562.561706</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1482278860268667</v>
+        <v>0.1398500575731496</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02048346797091968</v>
+        <v>0.0245188431030705</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>10</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1493824248.261654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1685249261.176143</v>
+        <v>1233205723.301988</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1480942766406972</v>
+        <v>0.1509290134120617</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02862072205919584</v>
+        <v>0.02847693595360559</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>842624644.6558131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4503371214.076484</v>
+        <v>5175743800.669794</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1231277270785072</v>
+        <v>0.1001459098426721</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04782014722849913</v>
+        <v>0.04744604038768464</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>9</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2251685558.520646</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2765001639.907347</v>
+        <v>2499226089.395359</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1505467614040212</v>
+        <v>0.1719348056955919</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02758027303513423</v>
+        <v>0.02493776748549884</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>10</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1382500865.472474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2309075043.290155</v>
+        <v>3299298611.02009</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1142107598688581</v>
+        <v>0.1307982435190298</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03169642505319092</v>
+        <v>0.02660362168703334</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>11</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1154537567.077882</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1389535299.931527</v>
+        <v>1739924272.383272</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1527750609805533</v>
+        <v>0.1580688988668555</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03825846068816141</v>
+        <v>0.03102891205845952</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>694767616.2695628</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4153285918.932564</v>
+        <v>3631443853.73158</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06655467399773689</v>
+        <v>0.1042886987730516</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03786177162514283</v>
+        <v>0.03129083911080706</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>9</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2076643014.813378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3418906144.42845</v>
+        <v>4192112803.02222</v>
       </c>
       <c r="F64" t="n">
-        <v>0.146831005200429</v>
+        <v>0.1196202137068637</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0325388442457886</v>
+        <v>0.02344175507229999</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>10</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1709453066.984843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4638386243.963324</v>
+        <v>5193102760.434401</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1504286584107915</v>
+        <v>0.1352547581711258</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02061130877495527</v>
+        <v>0.01963704073393112</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>12</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2319193102.29776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3801112841.584925</v>
+        <v>3640715468.136541</v>
       </c>
       <c r="F66" t="n">
-        <v>0.115991581667346</v>
+        <v>0.1095376543373179</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03520518754217294</v>
+        <v>0.04812479282345995</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>10</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1900556383.470928</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3425023652.972663</v>
+        <v>2932128261.519584</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08307468082435243</v>
+        <v>0.07946818845010273</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03233586276286785</v>
+        <v>0.05117648913936131</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>11</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1712511808.634077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5882913997.580232</v>
+        <v>5285348129.108398</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1335109269355243</v>
+        <v>0.121163866811611</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04125433285590964</v>
+        <v>0.03809579095934174</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>10</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2941457108.473909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1628623209.593598</v>
+        <v>1825802716.740466</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1516408371825679</v>
+        <v>0.1647261376809951</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04214388703457795</v>
+        <v>0.04176116984097926</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>814311561.5305265</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2423434734.432213</v>
+        <v>3677632743.685805</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08465905618998587</v>
+        <v>0.0625740679606417</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04766240528658572</v>
+        <v>0.03888476721062267</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>9</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1211717306.534098</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5601879891.957109</v>
+        <v>3464564349.264897</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1125166704147427</v>
+        <v>0.1123322028345846</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0282461303238248</v>
+        <v>0.02070489286347345</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>12</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2800940096.37418</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2237611862.343956</v>
+        <v>1691952104.845024</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07241177213578608</v>
+        <v>0.105494373195731</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03268569518188186</v>
+        <v>0.0526495805305395</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1118805838.961558</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3484689931.935579</v>
+        <v>2181767078.367381</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07671522483387302</v>
+        <v>0.09248402543090486</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04222264332700713</v>
+        <v>0.04833051933820594</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1742344917.422713</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2763935119.884768</v>
+        <v>3471216035.563124</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1463684044565912</v>
+        <v>0.1766210044849459</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02871916332453791</v>
+        <v>0.02453763117384973</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>11</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1381967645.545377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1685547223.650868</v>
+        <v>1545108120.943432</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1498433324100984</v>
+        <v>0.132786001751879</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03795215127296427</v>
+        <v>0.02441550110082245</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>842773605.3321503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4589862825.089866</v>
+        <v>4279855196.090667</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09263264285054627</v>
+        <v>0.1154388125821008</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02291123017393622</v>
+        <v>0.02786433121377227</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2294931421.817739</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2261353296.061856</v>
+        <v>1928288750.513069</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1639842054866095</v>
+        <v>0.1411415124910044</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02174914935147939</v>
+        <v>0.0255437012022583</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1130676747.974848</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3161549227.021906</v>
+        <v>4506137051.981383</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08789537723738815</v>
+        <v>0.131371065454869</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04540616513357055</v>
+        <v>0.05695522790233238</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>11</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1580774639.086226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1719945581.531981</v>
+        <v>1777507666.934176</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1539654771623045</v>
+        <v>0.1332276196173563</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02951181136998779</v>
+        <v>0.0342587460818318</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>859972863.1948175</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4968694782.94155</v>
+        <v>4507081084.525164</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1091181914057376</v>
+        <v>0.1077695375324875</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02631445040622461</v>
+        <v>0.02557719162582013</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2484347438.92492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4655324732.911586</v>
+        <v>4899761578.17035</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1337358658090742</v>
+        <v>0.09108940642950883</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0230713795955209</v>
+        <v>0.03163074779956388</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>7</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2327662353.832435</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4701265597.646956</v>
+        <v>5189107261.118375</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2130060887166573</v>
+        <v>0.1729841310069337</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01896827669344483</v>
+        <v>0.0272813883709923</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>11</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2350632799.276353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1667538489.570019</v>
+        <v>1766038360.766694</v>
       </c>
       <c r="F83" t="n">
-        <v>0.111236290643521</v>
+        <v>0.1329289027801155</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04293874103670806</v>
+        <v>0.04143291528549927</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>833769188.5685132</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2080539133.437676</v>
+        <v>2341982568.265925</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08465599831858149</v>
+        <v>0.09411309441350807</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04075822711266314</v>
+        <v>0.05215975418253037</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1040269559.740436</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2372469220.804212</v>
+        <v>2674914452.871222</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1394300938281032</v>
+        <v>0.1394563672107571</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03700006656226799</v>
+        <v>0.03687151672875758</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>12</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1186234601.074874</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1692805030.736123</v>
+        <v>2709529552.176127</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1072472918464591</v>
+        <v>0.1708772006500427</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02688795104933247</v>
+        <v>0.01780453193200158</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>846402500.1042997</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1211915967.402407</v>
+        <v>1139160431.290647</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1593660603260503</v>
+        <v>0.1151852536204486</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03229446954210097</v>
+        <v>0.03626923490114052</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>605958042.1475006</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3374443507.940325</v>
+        <v>3027418629.234105</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1602080102085966</v>
+        <v>0.1576191386647191</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02621730349531572</v>
+        <v>0.03685114888332675</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>13</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1687221821.241917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2163244158.190367</v>
+        <v>3073320208.722822</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1277385585938698</v>
+        <v>0.1548248626478141</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02618540790964621</v>
+        <v>0.03916793038480366</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>11</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1081622178.383879</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1584500442.725262</v>
+        <v>2154419486.825648</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08927974063229595</v>
+        <v>0.1234425162075944</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03649069622359542</v>
+        <v>0.05107929843189259</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>792250215.3287573</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1999184597.142283</v>
+        <v>1433969895.460817</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1808216363467687</v>
+        <v>0.1486757935609402</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04765698663436191</v>
+        <v>0.05761249455693783</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>999592270.745227</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2885285672.172378</v>
+        <v>1811119753.206569</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07963606072552278</v>
+        <v>0.06715266197866342</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04313099106774127</v>
+        <v>0.03168588698032645</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>9</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1442642848.998789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4236539396.988192</v>
+        <v>3301385828.856738</v>
       </c>
       <c r="F93" t="n">
-        <v>0.119854018060281</v>
+        <v>0.09201690630605175</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03860729841502748</v>
+        <v>0.04955446858606244</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>10</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2118269683.635208</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2205633837.822501</v>
+        <v>2135493446.273394</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1300983357572962</v>
+        <v>0.1497771568405998</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0368127067759736</v>
+        <v>0.04162954654112597</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1102816943.850905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2725642574.856053</v>
+        <v>1982997755.545132</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08533363135180608</v>
+        <v>0.09499383717236697</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04743839273936567</v>
+        <v>0.04501349336104047</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1362821306.935941</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1883137119.048193</v>
+        <v>2378282474.073836</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1279878566971587</v>
+        <v>0.1249470251479554</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03419433431189856</v>
+        <v>0.04173677883940873</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>941568558.7976668</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5155874338.354635</v>
+        <v>5063973232.956912</v>
       </c>
       <c r="F97" t="n">
-        <v>0.174037644243958</v>
+        <v>0.1133513606968451</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02386989069344888</v>
+        <v>0.02646135430316772</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>11</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2577937318.307553</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3675379210.959327</v>
+        <v>3871290362.471303</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0923190280132946</v>
+        <v>0.09254280370211021</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02925237901863614</v>
+        <v>0.02041803857887917</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>9</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1837689635.8189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2368064882.50555</v>
+        <v>2714973903.890241</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1414320145489462</v>
+        <v>0.1013279470374672</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02479412982702203</v>
+        <v>0.0321317756084674</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>10</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1184032381.138872</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2897337045.277779</v>
+        <v>3597021439.416486</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1723671034304317</v>
+        <v>0.136855666454456</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02772723989054802</v>
+        <v>0.02500059659365832</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>10</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1448668505.124498</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3245291628.461226</v>
+        <v>3349896440.425</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2042660415123197</v>
+        <v>0.2036552898221419</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0442728773248607</v>
+        <v>0.03533546284351718</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>14</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1622645935.517651</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_33.xlsx
+++ b/output/fit_clients/fit_round_33.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1575293078.544018</v>
+        <v>1540127108.29795</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0820479036300191</v>
+        <v>0.09154573397603744</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04473656360848457</v>
+        <v>0.03054392427323204</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1776031996.004105</v>
+        <v>1876028169.785441</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1180626812431903</v>
+        <v>0.1260850592055318</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03976184751552004</v>
+        <v>0.04833426625908745</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4359479062.178162</v>
+        <v>5103536076.175215</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1378003015881671</v>
+        <v>0.1355359070855917</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03232769685444958</v>
+        <v>0.0275756511699833</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2996143625.854954</v>
+        <v>3014100911.479062</v>
       </c>
       <c r="F5" t="n">
-        <v>0.101573122175484</v>
+        <v>0.08972774570890986</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03239396249781167</v>
+        <v>0.04358878277594045</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1820418553.494513</v>
+        <v>2034679569.532232</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1449973413442162</v>
+        <v>0.1300993927271434</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03793530109101836</v>
+        <v>0.05313239953537313</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3134192360.780221</v>
+        <v>2772592533.728108</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07153803658450672</v>
+        <v>0.06666449100708981</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03775088646176997</v>
+        <v>0.04179071125283946</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3304983860.369545</v>
+        <v>2566084751.353127</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2085446253956663</v>
+        <v>0.2158372949317229</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02977287659195035</v>
+        <v>0.03358146108699472</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1552010984.203454</v>
+        <v>1948003153.742758</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1593670078040113</v>
+        <v>0.1482085340029443</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03556822929659793</v>
+        <v>0.03658130107702592</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5403299815.721196</v>
+        <v>5274552249.015125</v>
       </c>
       <c r="F10" t="n">
-        <v>0.161056542370565</v>
+        <v>0.2056551043627961</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04484480203498996</v>
+        <v>0.04675506221796617</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3588781265.310606</v>
+        <v>3534526149.926482</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1632145026481401</v>
+        <v>0.1177039596198484</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03362559119571392</v>
+        <v>0.0478343173638154</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2826082380.211225</v>
+        <v>2760762914.871186</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1202171029363942</v>
+        <v>0.1606950873525811</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04840881755152726</v>
+        <v>0.03994709173250494</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5063035554.337044</v>
+        <v>4901705977.702726</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06825800325497193</v>
+        <v>0.06299198002918145</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02388608796576167</v>
+        <v>0.02169228568150476</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3120466033.220912</v>
+        <v>3846516910.698964</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1384826764842757</v>
+        <v>0.1619967635161169</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03597983066253055</v>
+        <v>0.04096815451993092</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1568908514.301033</v>
+        <v>1624873628.918262</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07915041596548106</v>
+        <v>0.08855997029517536</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03952778944350288</v>
+        <v>0.03665184221773268</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2625187481.464939</v>
+        <v>2389035081.931062</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08785153657374305</v>
+        <v>0.0858070798545541</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03359497408405991</v>
+        <v>0.0515259560596627</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3320427716.208255</v>
+        <v>3261555900.201046</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1216717180555097</v>
+        <v>0.1162613408960657</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04457127591836772</v>
+        <v>0.04336303430968163</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3674943904.770759</v>
+        <v>2576991161.286996</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1303157826484116</v>
+        <v>0.1714852305675869</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03099312471489666</v>
+        <v>0.03228838844198145</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1103520771.986695</v>
+        <v>935320281.3745515</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1627629704586463</v>
+        <v>0.1268138352202386</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02316780797444417</v>
+        <v>0.0274893254695523</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1850355573.387992</v>
+        <v>2499130285.877259</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1612360995032687</v>
+        <v>0.1243983728804378</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02661561651008834</v>
+        <v>0.02871857878289328</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2063271246.460052</v>
+        <v>1784505425.437815</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07876502518465332</v>
+        <v>0.07062498331424602</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02935519256655028</v>
+        <v>0.04082883161314418</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3660989780.139305</v>
+        <v>2720716450.550003</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1039542677127354</v>
+        <v>0.09344394361645257</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04105833212600928</v>
+        <v>0.04186089968128046</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1017709802.992851</v>
+        <v>1045281938.913301</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1740763641367191</v>
+        <v>0.1175510409053739</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04547315906145197</v>
+        <v>0.03310883370141031</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3860286437.998695</v>
+        <v>2700544997.371798</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1318996594887055</v>
+        <v>0.1348988307234131</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0271627479636816</v>
+        <v>0.02493255696464198</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1235394404.073729</v>
+        <v>1392616169.320966</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08157999136628834</v>
+        <v>0.08713100474675793</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02200901640485021</v>
+        <v>0.02940292897396589</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1153035577.315336</v>
+        <v>1226701897.830263</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1065677186008325</v>
+        <v>0.08506118948621214</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02820414595743485</v>
+        <v>0.03802052346105411</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3586488265.541588</v>
+        <v>3858094228.883794</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1097594622594881</v>
+        <v>0.1158492530455013</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02621997682774874</v>
+        <v>0.02357442465843005</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3711636426.609112</v>
+        <v>2377623493.322889</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1422819501171811</v>
+        <v>0.1015130543470831</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04423062658451697</v>
+        <v>0.0341062951745626</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4397705406.739775</v>
+        <v>4572612412.163316</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1511687472509811</v>
+        <v>0.1033883236221499</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0447522147377903</v>
+        <v>0.04289953420463718</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2169635196.478273</v>
+        <v>2080447397.820221</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1028840231232152</v>
+        <v>0.09261229632435075</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03372860701627241</v>
+        <v>0.03561928321971441</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1021393878.921963</v>
+        <v>1355916337.722816</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08228826887096855</v>
+        <v>0.09276531410625734</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05249140212582638</v>
+        <v>0.03901822907905042</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1486288560.826947</v>
+        <v>1657952760.197881</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1088717920325509</v>
+        <v>0.09998926789346275</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03551239416567363</v>
+        <v>0.02724479790463113</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2112266894.934335</v>
+        <v>1980846598.959289</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1795868221826296</v>
+        <v>0.1785100402821972</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0483966390022944</v>
+        <v>0.03822883064249485</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1255380496.080628</v>
+        <v>1222967590.269224</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07886819523492594</v>
+        <v>0.1068489840408739</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02171177983417165</v>
+        <v>0.02832998330780831</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>998747815.0146148</v>
+        <v>923054981.2128462</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08419024614846271</v>
+        <v>0.07881732800624738</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03454693681051663</v>
+        <v>0.03813825714856951</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2107399029.966844</v>
+        <v>2258050580.584378</v>
       </c>
       <c r="F36" t="n">
-        <v>0.141259465158271</v>
+        <v>0.167104614563014</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02748179883970827</v>
+        <v>0.02325158430441616</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2326446327.270554</v>
+        <v>1900798643.421093</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1066569129603484</v>
+        <v>0.09994651687785425</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02884025647109385</v>
+        <v>0.02592916504768909</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1779088159.624571</v>
+        <v>1777926917.262346</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1008654492961486</v>
+        <v>0.1010801347368063</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02476368616605005</v>
+        <v>0.03959554240374647</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1637150144.299718</v>
+        <v>1343300733.107168</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1461828848375433</v>
+        <v>0.1595003076035695</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0272754019999583</v>
+        <v>0.02673102900225893</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1233264378.548477</v>
+        <v>1350512810.506154</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1449419011016702</v>
+        <v>0.1444585026237981</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0417437933456116</v>
+        <v>0.04900876668813403</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2427695063.329377</v>
+        <v>1839414614.212159</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1167628291714062</v>
+        <v>0.1526636866939299</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04642606014038869</v>
+        <v>0.03049840281034094</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4118246357.94962</v>
+        <v>3487336074.430798</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1034107446482682</v>
+        <v>0.09771753469342437</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03762814476277394</v>
+        <v>0.0393858977686205</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2900599784.191494</v>
+        <v>2005805069.590787</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1604470129285423</v>
+        <v>0.128907919082863</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01633045765890638</v>
+        <v>0.02293476116802212</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1697022834.284179</v>
+        <v>1527938007.436538</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06324473751518597</v>
+        <v>0.09804883868795775</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02613573060919938</v>
+        <v>0.0332855582837734</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2124549056.023917</v>
+        <v>1633055148.05902</v>
       </c>
       <c r="F45" t="n">
-        <v>0.150799865994807</v>
+        <v>0.1504521612177874</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04793624639550215</v>
+        <v>0.05394836200502474</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5139040254.140112</v>
+        <v>3655966280.602949</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1462119241835526</v>
+        <v>0.1692486162680777</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05453567608989868</v>
+        <v>0.04412182035273343</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3753718064.691851</v>
+        <v>4931738761.719739</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1893259473886152</v>
+        <v>0.1604414707285913</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04423298109687106</v>
+        <v>0.05751201503193903</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3083804407.37878</v>
+        <v>3461654143.428114</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07366154072372982</v>
+        <v>0.1020868539031804</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02872281590972101</v>
+        <v>0.02457142115379017</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1785727006.927983</v>
+        <v>1943749585.13373</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1891014040229443</v>
+        <v>0.1198947066679101</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04371467928925546</v>
+        <v>0.03532056623254581</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3444101530.186903</v>
+        <v>3375351166.41767</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1468987398976405</v>
+        <v>0.1183314223814739</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03781024503920109</v>
+        <v>0.04222686969658</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1217309810.603803</v>
+        <v>1069941304.426108</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1267825328568335</v>
+        <v>0.1212937937880775</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05052182214409214</v>
+        <v>0.04595688652135672</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4933394642.032174</v>
+        <v>3895907601.35476</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1207823203433569</v>
+        <v>0.09584927326096461</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05289104905520815</v>
+        <v>0.05885358236188237</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2952993658.76584</v>
+        <v>3685169986.455192</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1966068492500298</v>
+        <v>0.1318515116816687</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03412739433581064</v>
+        <v>0.02459823991934402</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4058369723.122709</v>
+        <v>4795331740.204476</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1108283807967172</v>
+        <v>0.1193005439635921</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04792413363900482</v>
+        <v>0.05303092525648437</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4761610500.552724</v>
+        <v>4276670502.92352</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1925620697068781</v>
+        <v>0.2209994520374536</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02973230530445966</v>
+        <v>0.02641115899910224</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1707069625.650111</v>
+        <v>1506680583.233261</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1260718356951585</v>
+        <v>0.1269699618308051</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04439177791241775</v>
+        <v>0.0457615580349226</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4094244562.561706</v>
+        <v>4163261023.204566</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1398500575731496</v>
+        <v>0.1390689388448343</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0245188431030705</v>
+        <v>0.01919820895411559</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1233205723.301988</v>
+        <v>1470798196.912293</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1509290134120617</v>
+        <v>0.1655063004704665</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02847693595360559</v>
+        <v>0.03494120765263516</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5175743800.669794</v>
+        <v>3655941893.620633</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1001459098426721</v>
+        <v>0.1120391605987931</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04744604038768464</v>
+        <v>0.03228685019197541</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2499226089.395359</v>
+        <v>3101444670.51151</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1719348056955919</v>
+        <v>0.1624686663358229</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02493776748549884</v>
+        <v>0.02759659433116541</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3299298611.02009</v>
+        <v>2133822082.795854</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1307982435190298</v>
+        <v>0.1336077885817143</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02660362168703334</v>
+        <v>0.02216887354749464</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1739924272.383272</v>
+        <v>2034321776.381524</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1580688988668555</v>
+        <v>0.1770572512514245</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03102891205845952</v>
+        <v>0.04042560791709648</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3631443853.73158</v>
+        <v>4324567024.204311</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1042886987730516</v>
+        <v>0.1034637281880646</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03129083911080706</v>
+        <v>0.04562046853379313</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4192112803.02222</v>
+        <v>4511957965.969532</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1196202137068637</v>
+        <v>0.1656512817868746</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02344175507229999</v>
+        <v>0.02377988882483427</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5193102760.434401</v>
+        <v>4737836049.703902</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1352547581711258</v>
+        <v>0.1302013620897547</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01963704073393112</v>
+        <v>0.0285752057245358</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3640715468.136541</v>
+        <v>5226705146.726457</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1095376543373179</v>
+        <v>0.1267691890458265</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04812479282345995</v>
+        <v>0.0471077766426929</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2932128261.519584</v>
+        <v>3337355521.501818</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07946818845010273</v>
+        <v>0.0639398725617174</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05117648913936131</v>
+        <v>0.03530680327664982</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5285348129.108398</v>
+        <v>4791095395.9895</v>
       </c>
       <c r="F68" t="n">
-        <v>0.121163866811611</v>
+        <v>0.1162740969206279</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03809579095934174</v>
+        <v>0.04316657319687351</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1825802716.740466</v>
+        <v>2288217482.134596</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1647261376809951</v>
+        <v>0.151996372032048</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04176116984097926</v>
+        <v>0.04029761011973676</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3677632743.685805</v>
+        <v>2832468139.740984</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0625740679606417</v>
+        <v>0.06310918086249682</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03888476721062267</v>
+        <v>0.03672672869872133</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3464564349.264897</v>
+        <v>5332806096.047775</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1123322028345846</v>
+        <v>0.1368963176068152</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02070489286347345</v>
+        <v>0.02952980537489241</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1691952104.845024</v>
+        <v>1604441108.360219</v>
       </c>
       <c r="F72" t="n">
-        <v>0.105494373195731</v>
+        <v>0.06589987763212073</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0526495805305395</v>
+        <v>0.03507717041330314</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2181767078.367381</v>
+        <v>2645452193.730981</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09248402543090486</v>
+        <v>0.106072697995639</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04833051933820594</v>
+        <v>0.03718833780163572</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3471216035.563124</v>
+        <v>3271634465.368299</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1766210044849459</v>
+        <v>0.1759211581462981</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02453763117384973</v>
+        <v>0.02444546978801102</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1545108120.943432</v>
+        <v>2154484081.49301</v>
       </c>
       <c r="F75" t="n">
-        <v>0.132786001751879</v>
+        <v>0.1664991699880118</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02441550110082245</v>
+        <v>0.02386955091984814</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4279855196.090667</v>
+        <v>4329126652.739705</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1154388125821008</v>
+        <v>0.08806291752396955</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02786433121377227</v>
+        <v>0.0265456062736012</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1928288750.513069</v>
+        <v>1815394233.187698</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1411415124910044</v>
+        <v>0.1699614282764762</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0255437012022583</v>
+        <v>0.02592480862032639</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4506137051.981383</v>
+        <v>3990356972.613725</v>
       </c>
       <c r="F78" t="n">
-        <v>0.131371065454869</v>
+        <v>0.1050583869314157</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05695522790233238</v>
+        <v>0.05418275022692708</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1777507666.934176</v>
+        <v>1645086002.377452</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1332276196173563</v>
+        <v>0.1472963842994666</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0342587460818318</v>
+        <v>0.02448162773246874</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4507081084.525164</v>
+        <v>3941824781.148551</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1077695375324875</v>
+        <v>0.07426984587646969</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02557719162582013</v>
+        <v>0.02758556712841431</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4899761578.17035</v>
+        <v>3831622806.245302</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09108940642950883</v>
+        <v>0.1034472023868932</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03163074779956388</v>
+        <v>0.02467678940358693</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5189107261.118375</v>
+        <v>3585785186.987796</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1729841310069337</v>
+        <v>0.1952259960660607</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0272813883709923</v>
+        <v>0.01818837642272414</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1766038360.766694</v>
+        <v>1928829336.334947</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1329289027801155</v>
+        <v>0.1321390540519429</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04143291528549927</v>
+        <v>0.02853201382015033</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2341982568.265925</v>
+        <v>1653335316.449718</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09411309441350807</v>
+        <v>0.102441025830744</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05215975418253037</v>
+        <v>0.04383428697175362</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2674914452.871222</v>
+        <v>2960665142.480991</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1394563672107571</v>
+        <v>0.1775839218331141</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03687151672875758</v>
+        <v>0.03795190868552183</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2709529552.176127</v>
+        <v>1907389508.986248</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1708772006500427</v>
+        <v>0.1641733713053173</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01780453193200158</v>
+        <v>0.0175331498613349</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1139160431.290647</v>
+        <v>1450705580.239262</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1151852536204486</v>
+        <v>0.1259582400508686</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03626923490114052</v>
+        <v>0.03941412352314212</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3027418629.234105</v>
+        <v>3358015474.246224</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1576191386647191</v>
+        <v>0.1583019378406685</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03685114888332675</v>
+        <v>0.03818317665750167</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3073320208.722822</v>
+        <v>2427464432.545671</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1548248626478141</v>
+        <v>0.1161529517663891</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03916793038480366</v>
+        <v>0.02843045127240812</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2154419486.825648</v>
+        <v>1468542993.82116</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1234425162075944</v>
+        <v>0.1128174644263496</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05107929843189259</v>
+        <v>0.04389789527984114</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1433969895.460817</v>
+        <v>1928915057.469034</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1486757935609402</v>
+        <v>0.1567379630618281</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05761249455693783</v>
+        <v>0.04819370282010205</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1811119753.206569</v>
+        <v>2882426541.621813</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06715266197866342</v>
+        <v>0.09860640448875965</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03168588698032645</v>
+        <v>0.0339815939949807</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3301385828.856738</v>
+        <v>3582274955.55728</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09201690630605175</v>
+        <v>0.1345281851855278</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04955446858606244</v>
+        <v>0.0449467441380419</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2135493446.273394</v>
+        <v>1583095508.855735</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1497771568405998</v>
+        <v>0.119892122038092</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04162954654112597</v>
+        <v>0.03179543672756607</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1982997755.545132</v>
+        <v>2507044065.352217</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09499383717236697</v>
+        <v>0.1258406064445711</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04501349336104047</v>
+        <v>0.03991293498384276</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2378282474.073836</v>
+        <v>2285120483.543987</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1249470251479554</v>
+        <v>0.111349985816761</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04173677883940873</v>
+        <v>0.04588145438349974</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5063973232.956912</v>
+        <v>5080138638.552384</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1133513606968451</v>
+        <v>0.1287463647037994</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02646135430316772</v>
+        <v>0.02240012177098875</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3871290362.471303</v>
+        <v>2778732483.798127</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09254280370211021</v>
+        <v>0.1037092459029438</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02041803857887917</v>
+        <v>0.02097056735288672</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2714973903.890241</v>
+        <v>2313419713.380212</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1013279470374672</v>
+        <v>0.109535494389155</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0321317756084674</v>
+        <v>0.02782333963864495</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3597021439.416486</v>
+        <v>4224532873.938312</v>
       </c>
       <c r="F100" t="n">
-        <v>0.136855666454456</v>
+        <v>0.1272930850563</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02500059659365832</v>
+        <v>0.0279288470169191</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3349896440.425</v>
+        <v>3108949641.065831</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2036552898221419</v>
+        <v>0.2122352350997212</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03533546284351718</v>
+        <v>0.04188769338585373</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_33.xlsx
+++ b/output/fit_clients/fit_round_33.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1540127108.29795</v>
+        <v>1700359414.624861</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09154573397603744</v>
+        <v>0.08351294756077128</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03054392427323204</v>
+        <v>0.03738748508651824</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1876028169.785441</v>
+        <v>2186102581.216696</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1260850592055318</v>
+        <v>0.1680160237838149</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04833426625908745</v>
+        <v>0.04726687211430306</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5103536076.175215</v>
+        <v>4637564578.562648</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1355359070855917</v>
+        <v>0.1325274472828414</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0275756511699833</v>
+        <v>0.02879383477062338</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>23</v>
+      </c>
+      <c r="J4" t="n">
+        <v>33</v>
+      </c>
+      <c r="K4" t="n">
+        <v>215.5851010026451</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3014100911.479062</v>
+        <v>2596201147.573431</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08972774570890986</v>
+        <v>0.07585146710550363</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04358878277594045</v>
+        <v>0.04979791663920921</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>32</v>
+      </c>
+      <c r="K5" t="n">
+        <v>80.31849883454321</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2034679569.532232</v>
+        <v>2452154221.275684</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1300993927271434</v>
+        <v>0.09771534182672513</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05313239953537313</v>
+        <v>0.04744908197094021</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2772592533.728108</v>
+        <v>2883865063.442084</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06666449100708981</v>
+        <v>0.06612170866483881</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04179071125283946</v>
+        <v>0.04581149054165413</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2566084751.353127</v>
+        <v>2636242136.673514</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2158372949317229</v>
+        <v>0.1810368520172943</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03358146108699472</v>
+        <v>0.0319975769088261</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1948003153.742758</v>
+        <v>2144507784.740783</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1482085340029443</v>
+        <v>0.1202458738445171</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03658130107702592</v>
+        <v>0.02829015646975752</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5274552249.015125</v>
+        <v>4075060492.326272</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2056551043627961</v>
+        <v>0.1801578090838149</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04675506221796617</v>
+        <v>0.04706535817510995</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>31</v>
+      </c>
+      <c r="J10" t="n">
+        <v>33</v>
+      </c>
+      <c r="K10" t="n">
+        <v>210.646419856698</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3534526149.926482</v>
+        <v>4102062835.331773</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1177039596198484</v>
+        <v>0.1857858618307717</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0478343173638154</v>
+        <v>0.04706203959500822</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>33</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2760762914.871186</v>
+        <v>2792390939.728497</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1606950873525811</v>
+        <v>0.1683030881002914</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03994709173250494</v>
+        <v>0.04556922767105193</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4901705977.702726</v>
+        <v>4642877417.429784</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06299198002918145</v>
+        <v>0.06653056263806373</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02169228568150476</v>
+        <v>0.02129010288220311</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>15</v>
+      </c>
+      <c r="J13" t="n">
+        <v>33</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3846516910.698964</v>
+        <v>2792948450.818758</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1619967635161169</v>
+        <v>0.1414657330897316</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04096815451993092</v>
+        <v>0.03492444872878361</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>24</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1624873628.918262</v>
+        <v>1804209220.313959</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08855997029517536</v>
+        <v>0.08036934076593774</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03665184221773268</v>
+        <v>0.03914404670642562</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2389035081.931062</v>
+        <v>2517442051.325683</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0858070798545541</v>
+        <v>0.1062265348209731</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0515259560596627</v>
+        <v>0.03694292811724701</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3261555900.201046</v>
+        <v>4374880882.795268</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1162613408960657</v>
+        <v>0.1652986789143698</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04336303430968163</v>
+        <v>0.04786786235073402</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16</v>
+      </c>
+      <c r="J17" t="n">
+        <v>32</v>
+      </c>
+      <c r="K17" t="n">
+        <v>197.4455909601196</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2576991161.286996</v>
+        <v>3044092686.931655</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1714852305675869</v>
+        <v>0.1674110945775006</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03228838844198145</v>
+        <v>0.02908540187522604</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>935320281.3745515</v>
+        <v>860161727.7818365</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1268138352202386</v>
+        <v>0.1717855069819076</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0274893254695523</v>
+        <v>0.01856231889122536</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2499130285.877259</v>
+        <v>1813716102.004597</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1243983728804378</v>
+        <v>0.1453260333596953</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02871857878289328</v>
+        <v>0.01995899575989416</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1784505425.437815</v>
+        <v>2002038462.028257</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07062498331424602</v>
+        <v>0.07136937912824375</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04082883161314418</v>
+        <v>0.03517027149302409</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2720716450.550003</v>
+        <v>2942698213.19875</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09344394361645257</v>
+        <v>0.08756934044432534</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04186089968128046</v>
+        <v>0.03591323693925554</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>28</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1045281938.913301</v>
+        <v>1142504697.789395</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1175510409053739</v>
+        <v>0.146565599915281</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03310883370141031</v>
+        <v>0.0354935359483541</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2700544997.371798</v>
+        <v>3317260152.311973</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1348988307234131</v>
+        <v>0.1463346753239833</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02493255696464198</v>
+        <v>0.0321200664052456</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>30</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1392616169.320966</v>
+        <v>1116689395.68696</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08713100474675793</v>
+        <v>0.07747635780154222</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02940292897396589</v>
+        <v>0.0293565458286668</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1226701897.830263</v>
+        <v>1193395353.238488</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08506118948621214</v>
+        <v>0.0999274221175632</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03802052346105411</v>
+        <v>0.03527579759077702</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3858094228.883794</v>
+        <v>4154778929.034738</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1158492530455013</v>
+        <v>0.1412112085867523</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02357442465843005</v>
+        <v>0.02209345790858666</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>13</v>
+      </c>
+      <c r="J27" t="n">
+        <v>32</v>
+      </c>
+      <c r="K27" t="n">
+        <v>157.2259453170797</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2377623493.322889</v>
+        <v>3483565676.241675</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1015130543470831</v>
+        <v>0.1498717445611144</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0341062951745626</v>
+        <v>0.04327486709495586</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>33</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4572612412.163316</v>
+        <v>3863397615.208508</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1033883236221499</v>
+        <v>0.102315302516759</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04289953420463718</v>
+        <v>0.04405967837989272</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>30</v>
+      </c>
+      <c r="J29" t="n">
+        <v>32</v>
+      </c>
+      <c r="K29" t="n">
+        <v>191.8517583376109</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2080447397.820221</v>
+        <v>1798914616.92448</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09261229632435075</v>
+        <v>0.1135789327767975</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03561928321971441</v>
+        <v>0.0387068599265084</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1355916337.722816</v>
+        <v>1116017417.75595</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09276531410625734</v>
+        <v>0.07216365936258844</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03901822907905042</v>
+        <v>0.04541834574718909</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1657952760.197881</v>
+        <v>1764379164.210738</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09998926789346275</v>
+        <v>0.07537239021314145</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02724479790463113</v>
+        <v>0.03595661921343601</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1980846598.959289</v>
+        <v>2128367264.499852</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1785100402821972</v>
+        <v>0.1727309098914422</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03822883064249485</v>
+        <v>0.05662840162857954</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1222967590.269224</v>
+        <v>1400304344.087846</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1068489840408739</v>
+        <v>0.09577707553207473</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02832998330780831</v>
+        <v>0.02726301224346594</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>923054981.2128462</v>
+        <v>1194245285.880271</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07881732800624738</v>
+        <v>0.1159820967766489</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03813825714856951</v>
+        <v>0.03153384334194304</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2258050580.584378</v>
+        <v>2938888641.282292</v>
       </c>
       <c r="F36" t="n">
-        <v>0.167104614563014</v>
+        <v>0.1699622076990024</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02325158430441616</v>
+        <v>0.01949778621539877</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1900798643.421093</v>
+        <v>2295299488.134605</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09994651687785425</v>
+        <v>0.09489894402439242</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02592916504768909</v>
+        <v>0.04260921159648156</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1777926917.262346</v>
+        <v>2043065215.266855</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1010801347368063</v>
+        <v>0.07837791891150449</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03959554240374647</v>
+        <v>0.02906914934625019</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1343300733.107168</v>
+        <v>1879598895.394904</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1595003076035695</v>
+        <v>0.1287523839349937</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02673102900225893</v>
+        <v>0.03223034174479263</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1350512810.506154</v>
+        <v>1344382657.285088</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1444585026237981</v>
+        <v>0.1221248156239137</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04900876668813403</v>
+        <v>0.03755932282547505</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1839414614.212159</v>
+        <v>1907129317.062338</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1526636866939299</v>
+        <v>0.1218081586222968</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03049840281034094</v>
+        <v>0.03723576412517301</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3487336074.430798</v>
+        <v>2996830780.499469</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09771753469342437</v>
+        <v>0.09492143387526955</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0393858977686205</v>
+        <v>0.04293637555844221</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>11</v>
+      </c>
+      <c r="J42" t="n">
+        <v>31</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2005805069.590787</v>
+        <v>2033070974.510671</v>
       </c>
       <c r="F43" t="n">
-        <v>0.128907919082863</v>
+        <v>0.1703720997742205</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02293476116802212</v>
+        <v>0.02528032539025125</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1527938007.436538</v>
+        <v>1573773345.773086</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09804883868795775</v>
+        <v>0.1013488578247245</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0332855582837734</v>
+        <v>0.02509678847771156</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1633055148.05902</v>
+        <v>2389595553.424026</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1504521612177874</v>
+        <v>0.1488986293178093</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05394836200502474</v>
+        <v>0.03494393663766862</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3655966280.602949</v>
+        <v>4191417151.269302</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1692486162680777</v>
+        <v>0.1683035179286902</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04412182035273343</v>
+        <v>0.05966947333081821</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>20</v>
+      </c>
+      <c r="J46" t="n">
+        <v>32</v>
+      </c>
+      <c r="K46" t="n">
+        <v>200.4779116512149</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2090,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4931738761.719739</v>
+        <v>4747578924.690414</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1604414707285913</v>
+        <v>0.1981965789833061</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05751201503193903</v>
+        <v>0.03855140446434716</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>14</v>
+      </c>
+      <c r="J47" t="n">
+        <v>32</v>
+      </c>
+      <c r="K47" t="n">
+        <v>186.2639171318228</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3461654143.428114</v>
+        <v>4685611085.706834</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1020868539031804</v>
+        <v>0.1068737688937558</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02457142115379017</v>
+        <v>0.02471329941785922</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>11</v>
+      </c>
+      <c r="J48" t="n">
+        <v>32</v>
+      </c>
+      <c r="K48" t="n">
+        <v>210.0157587248462</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1943749585.13373</v>
+        <v>1683853520.574574</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1198947066679101</v>
+        <v>0.1852151930256923</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03532056623254581</v>
+        <v>0.04015946133578813</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3375351166.41767</v>
+        <v>3411747761.944734</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1183314223814739</v>
+        <v>0.1268233209803988</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04222686969658</v>
+        <v>0.03781323038276228</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>11</v>
+      </c>
+      <c r="J50" t="n">
+        <v>33</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1069941304.426108</v>
+        <v>1495449894.349275</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1212937937880775</v>
+        <v>0.1281076268337083</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04595688652135672</v>
+        <v>0.04461240791107221</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3895907601.35476</v>
+        <v>4347887351.276806</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09584927326096461</v>
+        <v>0.1390365494494933</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05885358236188237</v>
+        <v>0.04304141746233338</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>25</v>
+      </c>
+      <c r="J52" t="n">
+        <v>33</v>
+      </c>
+      <c r="K52" t="n">
+        <v>230.1373753625833</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3685169986.455192</v>
+        <v>3075673586.574298</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1318515116816687</v>
+        <v>0.1523531763327884</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02459823991934402</v>
+        <v>0.02205152131555134</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>31</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4795331740.204476</v>
+        <v>3991186954.565462</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1193005439635921</v>
+        <v>0.1348261657195594</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05303092525648437</v>
+        <v>0.04480996425109095</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>14</v>
+      </c>
+      <c r="J54" t="n">
+        <v>33</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4276670502.92352</v>
+        <v>3456308376.869615</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2209994520374536</v>
+        <v>0.1475835933818377</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02641115899910224</v>
+        <v>0.03106339792217325</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>15</v>
+      </c>
+      <c r="J55" t="n">
+        <v>33</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1506680583.233261</v>
+        <v>1616234975.773079</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1269699618308051</v>
+        <v>0.09996131314473632</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0457615580349226</v>
+        <v>0.03934921400192699</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4163261023.204566</v>
+        <v>3897645995.61411</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1390689388448343</v>
+        <v>0.129299261744142</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01919820895411559</v>
+        <v>0.02701010033330538</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>12</v>
+      </c>
+      <c r="J57" t="n">
+        <v>33</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1470798196.912293</v>
+        <v>1544399345.033089</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1655063004704665</v>
+        <v>0.1407301109843894</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03494120765263516</v>
+        <v>0.03137041523821738</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3655941893.620633</v>
+        <v>3378470901.137815</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1120391605987931</v>
+        <v>0.08054566899540655</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03228685019197541</v>
+        <v>0.03822176436225405</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>15</v>
+      </c>
+      <c r="J59" t="n">
+        <v>33</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3101444670.51151</v>
+        <v>2350689236.655159</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1624686663358229</v>
+        <v>0.142546640712299</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02759659433116541</v>
+        <v>0.02113184476733335</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2133822082.795854</v>
+        <v>2905581255.701071</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1336077885817143</v>
+        <v>0.1476044057168098</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02216887354749464</v>
+        <v>0.02119440906004056</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2034321776.381524</v>
+        <v>1653324467.081074</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1770572512514245</v>
+        <v>0.1292214778623163</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04042560791709648</v>
+        <v>0.04221322659272783</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4324567024.204311</v>
+        <v>4337031805.029983</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1034637281880646</v>
+        <v>0.1065503852551311</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04562046853379313</v>
+        <v>0.04395309266725118</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>16</v>
+      </c>
+      <c r="J63" t="n">
+        <v>32</v>
+      </c>
+      <c r="K63" t="n">
+        <v>195.9108866133677</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4511957965.969532</v>
+        <v>5047804269.632661</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1656512817868746</v>
+        <v>0.1893486524255157</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02377988882483427</v>
+        <v>0.02180755121406929</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>16</v>
+      </c>
+      <c r="J64" t="n">
+        <v>33</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4737836049.703902</v>
+        <v>3965672183.707935</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1302013620897547</v>
+        <v>0.1328899624283648</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0285752057245358</v>
+        <v>0.02730421122919285</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>27</v>
+      </c>
+      <c r="J65" t="n">
+        <v>32</v>
+      </c>
+      <c r="K65" t="n">
+        <v>179.8070719317195</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2765,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5226705146.726457</v>
+        <v>3948726533.476849</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1267691890458265</v>
+        <v>0.1068522738403083</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0471077766426929</v>
+        <v>0.04188315138471552</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>16</v>
+      </c>
+      <c r="J66" t="n">
+        <v>33</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3337355521.501818</v>
+        <v>2804122861.064748</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0639398725617174</v>
+        <v>0.08349997922146447</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03530680327664982</v>
+        <v>0.05016441338118364</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4791095395.9895</v>
+        <v>5337186164.234882</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1162740969206279</v>
+        <v>0.1367876975400356</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04316657319687351</v>
+        <v>0.04944647339732683</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>16</v>
+      </c>
+      <c r="J68" t="n">
+        <v>33</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2288217482.134596</v>
+        <v>2045468168.308849</v>
       </c>
       <c r="F69" t="n">
-        <v>0.151996372032048</v>
+        <v>0.143835145941985</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04029761011973676</v>
+        <v>0.04001439901502403</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2832468139.740984</v>
+        <v>2966259755.962116</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06310918086249682</v>
+        <v>0.09882968493367593</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03672672869872133</v>
+        <v>0.03796508865169601</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>27</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2940,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5332806096.047775</v>
+        <v>4568633171.75213</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1368963176068152</v>
+        <v>0.1675526674644683</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02952980537489241</v>
+        <v>0.0243396955579097</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>27</v>
+      </c>
+      <c r="J71" t="n">
+        <v>33</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.1175309189493</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1604441108.360219</v>
+        <v>1590571444.531358</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06589987763212073</v>
+        <v>0.07784400294983392</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03507717041330314</v>
+        <v>0.05318664227159151</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2645452193.730981</v>
+        <v>2432487652.437017</v>
       </c>
       <c r="F73" t="n">
-        <v>0.106072697995639</v>
+        <v>0.09332062969697313</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03718833780163572</v>
+        <v>0.04610519683653704</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>30</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3271634465.368299</v>
+        <v>3870017479.340889</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1759211581462981</v>
+        <v>0.1851435953411585</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02444546978801102</v>
+        <v>0.03028738803383152</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>9</v>
+      </c>
+      <c r="J74" t="n">
+        <v>33</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2154484081.49301</v>
+        <v>2298558831.526639</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1664991699880118</v>
+        <v>0.1636256721342791</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02386955091984814</v>
+        <v>0.02612902573228241</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3111,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4329126652.739705</v>
+        <v>4650852439.395262</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08806291752396955</v>
+        <v>0.08570680668236358</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0265456062736012</v>
+        <v>0.02835709460724196</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>15</v>
+      </c>
+      <c r="J76" t="n">
+        <v>33</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3146,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1815394233.187698</v>
+        <v>1900876054.371074</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1699614282764762</v>
+        <v>0.1181815820432685</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02592480862032639</v>
+        <v>0.02650207245933362</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3181,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3990356972.613725</v>
+        <v>4676966691.100049</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1050583869314157</v>
+        <v>0.09282166070640641</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05418275022692708</v>
+        <v>0.05550775231905864</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>13</v>
+      </c>
+      <c r="J78" t="n">
+        <v>33</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3222,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1645086002.377452</v>
+        <v>1512905007.317248</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1472963842994666</v>
+        <v>0.1506130037786856</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02448162773246874</v>
+        <v>0.04077620155705154</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3251,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3941824781.148551</v>
+        <v>4537857696.073604</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07426984587646969</v>
+        <v>0.09670712403803314</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02758556712841431</v>
+        <v>0.03029028207738081</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>16</v>
+      </c>
+      <c r="J80" t="n">
+        <v>32</v>
+      </c>
+      <c r="K80" t="n">
+        <v>168.3380239162612</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3294,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3831622806.245302</v>
+        <v>4921799419.644412</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1034472023868932</v>
+        <v>0.1208159620422328</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02467678940358693</v>
+        <v>0.03031007207937953</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>14</v>
+      </c>
+      <c r="J81" t="n">
+        <v>32</v>
+      </c>
+      <c r="K81" t="n">
+        <v>170.7595294518541</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3585785186.987796</v>
+        <v>5591521095.917354</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1952259960660607</v>
+        <v>0.2175058668256926</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01818837642272414</v>
+        <v>0.02770367894636707</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>17</v>
+      </c>
+      <c r="J82" t="n">
+        <v>33</v>
+      </c>
+      <c r="K82" t="n">
+        <v>214.0284557932425</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1928829336.334947</v>
+        <v>2167997007.071269</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1321390540519429</v>
+        <v>0.09723329281944641</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02853201382015033</v>
+        <v>0.04010273881562938</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3403,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1653335316.449718</v>
+        <v>1892246864.386306</v>
       </c>
       <c r="F84" t="n">
-        <v>0.102441025830744</v>
+        <v>0.1151690569577523</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04383428697175362</v>
+        <v>0.03858686723396082</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3438,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2960665142.480991</v>
+        <v>3095780482.587424</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1775839218331141</v>
+        <v>0.1433019246060424</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03795190868552183</v>
+        <v>0.05630180124135589</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>31</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1907389508.986248</v>
+        <v>1826587890.930621</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1641733713053173</v>
+        <v>0.1144893485345207</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0175331498613349</v>
+        <v>0.02601360114146423</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3508,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1450705580.239262</v>
+        <v>1194969506.036837</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1259582400508686</v>
+        <v>0.190259869502526</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03941412352314212</v>
+        <v>0.04241564992051357</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3537,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3358015474.246224</v>
+        <v>2252613502.439631</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1583019378406685</v>
+        <v>0.1652158565741648</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03818317665750167</v>
+        <v>0.03662976958378305</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>25</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,16 +3578,25 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2427464432.545671</v>
+        <v>2963631305.130261</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1161529517663891</v>
+        <v>0.1582814559731794</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02843045127240812</v>
+        <v>0.03477517908205444</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>32</v>
+      </c>
+      <c r="K89" t="n">
+        <v>99.16132730713903</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1468542993.82116</v>
+        <v>1985736904.674268</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1128174644263496</v>
+        <v>0.09101001059200935</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04389789527984114</v>
+        <v>0.04083458700063354</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1928915057.469034</v>
+        <v>2075078741.765571</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1567379630618281</v>
+        <v>0.1953597771944661</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04819370282010205</v>
+        <v>0.05980624494297387</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2882426541.621813</v>
+        <v>1875332810.208675</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09860640448875965</v>
+        <v>0.1079438787384154</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0339815939949807</v>
+        <v>0.03169994843337314</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3714,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3582274955.55728</v>
+        <v>4033981236.525046</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1345281851855278</v>
+        <v>0.1399214922963399</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0449467441380419</v>
+        <v>0.03588292712311755</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>14</v>
+      </c>
+      <c r="J93" t="n">
+        <v>33</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3755,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1583095508.855735</v>
+        <v>1601774489.117508</v>
       </c>
       <c r="F94" t="n">
-        <v>0.119892122038092</v>
+        <v>0.1179826079583749</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03179543672756607</v>
+        <v>0.04287561403932744</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2507044065.352217</v>
+        <v>2647640441.481628</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1258406064445711</v>
+        <v>0.1168449679570378</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03991293498384276</v>
+        <v>0.04568559296801542</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3825,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2285120483.543987</v>
+        <v>1842933238.221764</v>
       </c>
       <c r="F96" t="n">
-        <v>0.111349985816761</v>
+        <v>0.1303968315339871</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04588145438349974</v>
+        <v>0.03859543201416442</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3854,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5080138638.552384</v>
+        <v>3239072861.719216</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1287463647037994</v>
+        <v>0.1485760582855715</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02240012177098875</v>
+        <v>0.02488223707461085</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>16</v>
+      </c>
+      <c r="J97" t="n">
+        <v>31</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3889,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2778732483.798127</v>
+        <v>2630349017.844039</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1037092459029438</v>
+        <v>0.1119795818086799</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02097056735288672</v>
+        <v>0.02098602811800809</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>8</v>
+      </c>
+      <c r="J98" t="n">
+        <v>32</v>
+      </c>
+      <c r="K98" t="n">
+        <v>68.36154641268774</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3926,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2313419713.380212</v>
+        <v>2565794504.609394</v>
       </c>
       <c r="F99" t="n">
-        <v>0.109535494389155</v>
+        <v>0.1342750378113045</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02782333963864495</v>
+        <v>0.02456545601004879</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3961,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4224532873.938312</v>
+        <v>4497389252.174632</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1272930850563</v>
+        <v>0.136795691033935</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0279288470169191</v>
+        <v>0.01802848867297617</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>15</v>
+      </c>
+      <c r="J100" t="n">
+        <v>32</v>
+      </c>
+      <c r="K100" t="n">
+        <v>199.5526589727769</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3108949641.065831</v>
+        <v>3151324728.695446</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2122352350997212</v>
+        <v>0.2210799582087007</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04188769338585373</v>
+        <v>0.03646907719375082</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>32</v>
+      </c>
+      <c r="K101" t="n">
+        <v>126.9736975298515</v>
       </c>
     </row>
   </sheetData>
